--- a/Strategy PnL.xlsx
+++ b/Strategy PnL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/High-volume-bar-momentum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A25076-DCF7-4974-A315-9F92C438152F}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{6C2AE254-66F2-4EF6-B21C-8678AAFEBF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B67A6C-343A-40B0-B7C6-C6FEE308B66B}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2730" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>PnL</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>side</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>bud I sektorn (zynga) med stor premie, volym = 42% av ADV efter 15 min</t>
   </si>
 </sst>
 </file>
@@ -128,13 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +441,7 @@
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -480,55 +490,72 @@
       <c r="P1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.54395833333333332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>44560</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="H4" s="2"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="H5" s="2"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="H6" s="2"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
